--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -342,7 +342,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
+    <t>Type de messagerie électronique rassemblant des acteurs (personne physique, personne morale ou système) identifiés et enregistrés selon des règles qui garantissent leur légitimité à l'utiliser. L'échange de messages obéit à des spécifications fonctionnelles et techniques propres à ce type de messagerie.</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
@@ -361,7 +361,7 @@
 </t>
   </si>
   <si>
-    <t>Extension</t>
+    <t>Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
   </si>
   <si>
     <t>An Extension</t>
@@ -377,7 +377,7 @@
 </t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
+    <t>canal : Code spécifiant le canal ou la manière dont s'établit la communication (téléphone, e-mail, URL, etc.). Quelques exemples de codes: ** MOB: Téléphone mobile; ** FIX: Téléphone fixe; ** EML: Courrier électronique; ** URL: Uniform Resource Location; ** FTP: File Transfer Protocol; ** FAX: Télécopie.</t>
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
@@ -412,7 +412,7 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication, par exemple un numéro de téléphone, une adresse de courrier électronique, une adresse URL, etc.</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -436,7 +436,7 @@
     <t>ContactPoint.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+    <t>Précise l'utilisation du canal de communication (par exemple à des fins professionnelles, privées, etc.).</t>
   </si>
   <si>
     <t>Identifies the purpose for the contact point.</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t>Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1444,7 +1441,7 @@
         <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1513,7 +1510,7 @@
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -1521,10 +1518,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1544,16 +1541,16 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1580,14 +1577,14 @@
         <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y7" t="s" s="2">
+      <c r="Z7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="Z7" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AA7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1613,27 +1610,27 @@
         <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AJ7" t="s" s="2">
+      <c r="AK7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AK7" t="s" s="2">
+      <c r="AL7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AL7" t="s" s="2">
+      <c r="AM7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1653,22 +1650,22 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -1717,7 +1714,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -1729,24 +1726,24 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AL8" t="s" s="2">
+      <c r="AM8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1763,25 +1760,25 @@
         <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="J9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="L9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -1806,14 +1803,14 @@
         <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="Z9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Z9" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AA9" t="s" s="2">
         <v>75</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1842,24 +1839,24 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL9" t="s" s="2">
+      <c r="AM9" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1879,19 +1876,19 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1941,7 +1938,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1953,7 +1950,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>91</v>
@@ -1967,10 +1964,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1990,16 +1987,16 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2050,7 +2047,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2062,16 +2059,16 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Adresse de télécommunication à laquelle une personne ou une organisation peut être contactée  (téléphone, fax, e-mail, URL, etc.).</t>
+    <t>Adresse de télécommunication à laquelle une personne ou une organisation peut être contactée  (téléphone, fax, e-mail, URL, etc.).</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Code spécifiant le canal ou la manière dont s'établit la communication (téléphone, e-mail, URL, etc.).Quelques exemples de codes:** MOB: Téléphone mobile;** FIX: Téléphone fixe;** EML: Courrier électronique;** URL: Uniform Resource Location;** FTP: File Transfer Protocol;** FAX: Télécopie.</t>
+    <t>Code spécifiant le canal ou la manière dont s'établit la communication (téléphone, e-mail, URL, etc.).Quelques exemples de codes:** MOB: Téléphone mobile;** FIX: Téléphone fixe;** EML: Courrier électronique;** URL: Uniform Resource Location;** FTP: File Transfer Protocol;** FAX: Télécopie.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -270,13 +270,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Valeur de l'adresse de télécommunication dans le format induit par le canal de communication, par exemple un numéro de téléphone, une adresse de courrier électronique, une adresse URL, etc.</t>
+    <t>Valeur de l'adresse de télécommunication dans le format induit par le canal de communication, par exemple un numéro de téléphone, une adresse de courrier électronique, une adresse URL, etc.</t>
   </si>
   <si>
     <t>Telecommunication.typeMessagerie</t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de messagerie électronique rassemblant des acteurs (personne physique, personne morale ou système) identifiés et enregistrés selon des règles qui garantissent leur légitimité à l'utiliser. L'échange de messages obéit à des spécifications fonctionnelles et techniques propres à ce type de messagerie.</t>
+    <t>Type de messagerie électronique rassemblant des acteurs (personne physique, personne morale ou système) identifiés et enregistrés selon des règles qui garantissent leur légitimité à l'utiliser. L'échange de messages obéit à des spécifications fonctionnelles et techniques propres à ce type de messagerie.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R256-TypeMessagerie?vs</t>
@@ -285,13 +285,13 @@
     <t>Telecommunication.utilisation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Précise l'utilisation du canal de communication (par exemple à des fins professionnelles, privées, etc.).</t>
+    <t>Précise l'utilisation du canal de communication (par exemple à des fins professionnelles, privées, etc.).</t>
   </si>
   <si>
     <t>Telecommunication.niveauConfidentialite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
+    <t>Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R283-NiveauConfidentialite?vs</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R200-CanalCommunication?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R200-CanalCommunication/FHIR/TRE-R200-CanalCommunication?vs</t>
   </si>
   <si>
     <t>Telecommunication.adresseTelecom</t>
@@ -279,7 +279,7 @@
     <t>Type de messagerie électronique rassemblant des acteurs (personne physique, personne morale ou système) identifiés et enregistrés selon des règles qui garantissent leur légitimité à l'utiliser. L'échange de messages obéit à des spécifications fonctionnelles et techniques propres à ce type de messagerie.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R256-TypeMessagerie?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie?vs</t>
   </si>
   <si>
     <t>Telecommunication.utilisation</t>
@@ -294,7 +294,7 @@
     <t>Le niveau de confidentialité permet de définir le niveau de restriction de l'accès aux attributs de la classe Telecommunication.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R283-NiveauConfidentialite?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R283-NiveauConfidentialite/FHIR/TRE-R283-NiveauConfidentialite?vs</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.15234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.1640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Adresse de télécommunication à laquelle une personne ou une organisation peut être contactée  (téléphone, fax, e-mail, URL, etc.).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Adresse de télécommunication à laquelle une personne ou une organisation peut être contactée  (téléphone, fax, e-mail, URL, etc.).</t>
   </si>
   <si>
     <t>Base</t>
@@ -528,39 +528,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -568,26 +570,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -645,112 +647,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -762,95 +764,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -862,23 +864,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -892,26 +894,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -921,34 +923,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -960,23 +962,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>83</v>
@@ -990,65 +992,65 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1060,23 +1062,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>78</v>
@@ -1090,26 +1092,26 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
         <v>80</v>
@@ -1119,34 +1121,34 @@
         <v>87</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1158,23 +1160,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>83</v>
@@ -1188,65 +1190,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1258,23 +1260,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1288,26 +1290,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1317,34 +1319,34 @@
         <v>92</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Telecommunication.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Telecommunication</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Telecommunication</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
